--- a/Code/Results/Cases/Case_1_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.95658967950429</v>
+        <v>17.7435299789381</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.880830639531517</v>
+        <v>7.895511040167776</v>
       </c>
       <c r="E2">
-        <v>45.75687548824548</v>
+        <v>23.97727777931222</v>
       </c>
       <c r="F2">
-        <v>69.19430997043878</v>
+        <v>45.93636939641061</v>
       </c>
       <c r="G2">
-        <v>1.887877940719855</v>
+        <v>3.635167101352711</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.87804675786027</v>
+        <v>24.60619259076782</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.27776716300398</v>
+        <v>13.36631457433549</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.47999407219911</v>
+        <v>17.96673420643691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.32025966479537</v>
+        <v>17.36251559319772</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.013145005905908</v>
+        <v>7.777055799274089</v>
       </c>
       <c r="E3">
-        <v>42.07143457450043</v>
+        <v>22.46871719913002</v>
       </c>
       <c r="F3">
-        <v>63.42477233211171</v>
+        <v>44.56221823164615</v>
       </c>
       <c r="G3">
-        <v>1.920757499470463</v>
+        <v>3.643944028944533</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.24776451583185</v>
+        <v>24.7855648676278</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.83066304480424</v>
+        <v>13.07496835463885</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.81563153066325</v>
+        <v>18.04296343812682</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.27907813198273</v>
+        <v>17.12891609210078</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.496982721631504</v>
+        <v>7.707388924229538</v>
       </c>
       <c r="E4">
-        <v>39.77958267693234</v>
+        <v>21.48973561322724</v>
       </c>
       <c r="F4">
-        <v>59.86472227404882</v>
+        <v>43.7203171692588</v>
       </c>
       <c r="G4">
-        <v>1.940485102399729</v>
+        <v>3.649583682778916</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.50475256372802</v>
+        <v>24.90233406872711</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.92016805571877</v>
+        <v>12.89739030964981</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.0187026191449</v>
+        <v>18.09191414805754</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.84486477921003</v>
+        <v>17.03394399529442</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.316535570836196</v>
+        <v>7.679797929502742</v>
       </c>
       <c r="E5">
-        <v>38.83455857809313</v>
+        <v>21.07755138501533</v>
       </c>
       <c r="F5">
-        <v>58.40431949165104</v>
+        <v>43.37826900217194</v>
       </c>
       <c r="G5">
-        <v>1.94845932077215</v>
+        <v>3.651945353778197</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.61592890591015</v>
+        <v>24.95158007281294</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.54251456011105</v>
+        <v>12.82545700682666</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.10109079466224</v>
+        <v>18.11240481898043</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.77214615193147</v>
+        <v>17.01819132923751</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.28664652052219</v>
+        <v>7.675265485536334</v>
       </c>
       <c r="E6">
-        <v>38.67687598325551</v>
+        <v>21.00830955298322</v>
       </c>
       <c r="F6">
-        <v>58.16111315901302</v>
+        <v>43.3215517292835</v>
       </c>
       <c r="G6">
-        <v>1.949780768350912</v>
+        <v>3.652341353881346</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.63475231730847</v>
+        <v>24.95985750790918</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.47937837879254</v>
+        <v>12.81354157721302</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.11475897347287</v>
+        <v>18.11584016363455</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.27326321647906</v>
+        <v>17.127634187703</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.494543867617628</v>
+        <v>7.707013552693259</v>
       </c>
       <c r="E7">
-        <v>39.76688691537808</v>
+        <v>21.48423033371274</v>
       </c>
       <c r="F7">
-        <v>59.84507166990587</v>
+        <v>43.71569923138499</v>
       </c>
       <c r="G7">
-        <v>1.940592850204452</v>
+        <v>3.649615275526389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.50622705504664</v>
+        <v>24.90299149805998</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.91510295412385</v>
+        <v>12.89641831066488</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.01981476212338</v>
+        <v>18.09218828998938</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.39943155732979</v>
+        <v>17.61216461540456</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.581540023982354</v>
+        <v>7.854049054748264</v>
       </c>
       <c r="E8">
-        <v>44.48952760659002</v>
+        <v>23.46807210705305</v>
       </c>
       <c r="F8">
-        <v>67.20491062389848</v>
+        <v>45.46251755401737</v>
       </c>
       <c r="G8">
-        <v>1.899345477693296</v>
+        <v>3.638141652905393</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.99855997807382</v>
+        <v>24.6666592409657</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.78261445942365</v>
+        <v>13.26564723809274</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.59661679406426</v>
+        <v>17.99257472080827</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.32878504903361</v>
+        <v>18.55931637135392</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.79266281876358</v>
+        <v>8.165368044127973</v>
       </c>
       <c r="E9">
-        <v>53.77118785163455</v>
+        <v>26.94021536914255</v>
       </c>
       <c r="F9">
-        <v>81.85878193542997</v>
+        <v>48.878773663556</v>
       </c>
       <c r="G9">
-        <v>1.811472437869252</v>
+        <v>3.617609265706515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.30902564887571</v>
+        <v>24.25615855641836</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.34111251475268</v>
+        <v>13.99571565968178</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.71727570131224</v>
+        <v>17.81410569474417</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.18565197750504</v>
+        <v>19.24599174251404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.59002413150279</v>
+        <v>8.406205939829963</v>
       </c>
       <c r="E10">
-        <v>61.20843975606432</v>
+        <v>29.23739386317487</v>
       </c>
       <c r="F10">
-        <v>93.6445889034421</v>
+        <v>51.35350858330505</v>
       </c>
       <c r="G10">
-        <v>1.734674845019127</v>
+        <v>3.603693866304828</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.13454055691364</v>
+        <v>23.98729238002272</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.05861516727968</v>
+        <v>14.53010945152119</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.980252558065965</v>
+        <v>17.69305686601538</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.53744855044063</v>
+        <v>19.55493969138293</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.52213469428584</v>
+        <v>8.517976642005531</v>
       </c>
       <c r="E11">
-        <v>65.04122986127305</v>
+        <v>30.22775824756393</v>
       </c>
       <c r="F11">
-        <v>99.6883627941567</v>
+        <v>52.46617914502883</v>
       </c>
       <c r="G11">
-        <v>1.69297038221089</v>
+        <v>3.597610879038639</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.18929548444698</v>
+        <v>23.87219334128898</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.40165738484043</v>
+        <v>14.77167187840343</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.594032897894639</v>
+        <v>17.64012931143575</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.06865255484346</v>
+        <v>19.6713268742187</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14.90739143104368</v>
+        <v>8.560583658638789</v>
       </c>
       <c r="E12">
-        <v>66.62216184542842</v>
+        <v>30.5949688065304</v>
       </c>
       <c r="F12">
-        <v>102.1693809223069</v>
+        <v>52.88522932117169</v>
       </c>
       <c r="G12">
-        <v>1.675364418814001</v>
+        <v>3.595342429210892</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.23999673907845</v>
+        <v>23.82965519622438</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.94270849204615</v>
+        <v>14.86283813174334</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.434100095461826</v>
+        <v>17.62039080471944</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.95304778891452</v>
+        <v>19.64628941554291</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.82252051091431</v>
+        <v>8.551395511864762</v>
       </c>
       <c r="E13">
-        <v>66.27402001762769</v>
+        <v>30.51623054043891</v>
       </c>
       <c r="F13">
-        <v>101.6237473117126</v>
+        <v>52.79508749988742</v>
       </c>
       <c r="G13">
-        <v>1.679261315826705</v>
+        <v>3.595829429897199</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.227460049387</v>
+        <v>23.83876978836221</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.82424226375765</v>
+        <v>14.84321888517405</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.469337923982298</v>
+        <v>17.62462837980736</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.58064844856147</v>
+        <v>19.5645276710638</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.55302644987287</v>
+        <v>8.52147650396703</v>
       </c>
       <c r="E14">
-        <v>65.16805631976915</v>
+        <v>30.25812535124355</v>
       </c>
       <c r="F14">
-        <v>99.88769373464011</v>
+        <v>52.50070283779761</v>
       </c>
       <c r="G14">
-        <v>1.691566550519426</v>
+        <v>3.597423552851442</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.19276909442633</v>
+        <v>23.86867264846518</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.44535113409842</v>
+        <v>14.7791788377419</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.581211853285078</v>
+        <v>17.63849933974938</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.35562284654023</v>
+        <v>19.51436428489735</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.39292249406502</v>
+        <v>8.503185886592373</v>
       </c>
       <c r="E15">
-        <v>64.51062528088133</v>
+        <v>30.09901141405073</v>
       </c>
       <c r="F15">
-        <v>98.8539004469733</v>
+        <v>52.32007349317932</v>
       </c>
       <c r="G15">
-        <v>1.698827254717553</v>
+        <v>3.598404548098813</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.1759006844101</v>
+        <v>23.88712573867756</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.2183195701315</v>
+        <v>14.73990982801404</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.647650639739377</v>
+        <v>17.6470351910562</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.09912553379169</v>
+        <v>19.22572259612454</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.53243301669043</v>
+        <v>8.398942873665211</v>
       </c>
       <c r="E16">
-        <v>60.97119006789984</v>
+        <v>29.17157491561163</v>
       </c>
       <c r="F16">
-        <v>93.26943973455268</v>
+        <v>51.28049335547568</v>
       </c>
       <c r="G16">
-        <v>1.737209809323285</v>
+        <v>3.604096335435395</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.13439020243518</v>
+        <v>23.99496034121906</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.9741024372688</v>
+        <v>14.51428427870188</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.00405668331748</v>
+        <v>17.69655853685876</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.34711766467503</v>
+        <v>19.04769102932986</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.04109529183448</v>
+        <v>8.335533921725249</v>
       </c>
       <c r="E17">
-        <v>58.94461806768376</v>
+        <v>28.58865442957559</v>
       </c>
       <c r="F17">
-        <v>90.06150488273661</v>
+        <v>50.63908483037353</v>
       </c>
       <c r="G17">
-        <v>1.758637779675269</v>
+        <v>3.607651022071297</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.14861824637203</v>
+        <v>24.06296726834987</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.24604290591335</v>
+        <v>14.37541301819978</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.20673819778589</v>
+        <v>17.72748469211931</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.91850038781234</v>
+        <v>18.94497594707497</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.76792839608604</v>
+        <v>8.299273171675043</v>
       </c>
       <c r="E18">
-        <v>57.81581236851506</v>
+        <v>28.24822898485871</v>
       </c>
       <c r="F18">
-        <v>88.27264529699352</v>
+        <v>50.26895266529868</v>
       </c>
       <c r="G18">
-        <v>1.770396441442714</v>
+        <v>3.609718881752098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.16855188511115</v>
+        <v>24.10276097208078</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.83589476143144</v>
+        <v>14.29539824878117</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.3190567948688</v>
+        <v>17.74547406143705</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.77384305291363</v>
+        <v>18.91014764867866</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.67678500303873</v>
+        <v>8.287033150516434</v>
       </c>
       <c r="E19">
-        <v>57.43881666361297</v>
+        <v>28.1320820753012</v>
       </c>
       <c r="F19">
-        <v>87.6749866307037</v>
+        <v>50.1434374621613</v>
       </c>
       <c r="G19">
-        <v>1.774295138044373</v>
+        <v>3.610423040077738</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.17711005953194</v>
+        <v>24.11635055629928</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.69820509427635</v>
+        <v>14.2682853821348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.35646553382848</v>
+        <v>17.75159965896479</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.42671167772523</v>
+        <v>19.0666763388823</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.0923520344401</v>
+        <v>8.342262400714805</v>
       </c>
       <c r="E20">
-        <v>59.15625085718347</v>
+        <v>28.65123954534047</v>
       </c>
       <c r="F20">
-        <v>90.3967521108525</v>
+        <v>50.70749229291972</v>
       </c>
       <c r="G20">
-        <v>1.756419073480249</v>
+        <v>3.60727021196409</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.14583491679852</v>
+        <v>24.05565757803141</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.32257817141826</v>
+        <v>14.39021120904179</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.18563149756557</v>
+        <v>17.72417172439733</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.68934628729395</v>
+        <v>19.58856034703593</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.63108942679179</v>
+        <v>8.53025707888739</v>
       </c>
       <c r="E21">
-        <v>65.48849630862088</v>
+        <v>30.3341489816899</v>
       </c>
       <c r="F21">
-        <v>100.3911019679484</v>
+        <v>52.58723607831427</v>
       </c>
       <c r="G21">
-        <v>1.688012937980201</v>
+        <v>3.596954373213837</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.20201036046615</v>
+        <v>23.85986094019772</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.55552552448698</v>
+        <v>14.79799798424186</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.548810077052869</v>
+        <v>17.63441687953972</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.30154411934047</v>
+        <v>19.92607024293453</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.85350572943965</v>
+        <v>8.654748996525891</v>
       </c>
       <c r="E22">
-        <v>70.49912888046437</v>
+        <v>31.38847377049994</v>
       </c>
       <c r="F22">
-        <v>108.2129945541039</v>
+        <v>53.80222410980121</v>
       </c>
       <c r="G22">
-        <v>1.631230399715849</v>
+        <v>3.590416408446753</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.71223472102586</v>
+        <v>23.73800678495358</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.23462731438282</v>
+        <v>15.06267736028389</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.041509631768115</v>
+        <v>17.57752727106497</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.41986669609872</v>
+        <v>19.74629682801747</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.1689864104444</v>
+        <v>8.588168352496167</v>
       </c>
       <c r="E23">
-        <v>67.6948068985329</v>
+        <v>30.8299152794713</v>
       </c>
       <c r="F23">
-        <v>103.8477231105794</v>
+        <v>53.15512557652241</v>
       </c>
       <c r="G23">
-        <v>1.663288275794037</v>
+        <v>3.593887342408592</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.28339632532362</v>
+        <v>23.80247985525896</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.30523245390537</v>
+        <v>14.92160807804197</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.325488527264474</v>
+        <v>17.60772948760832</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.39071630053573</v>
+        <v>19.0580942005105</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.0691507540369</v>
+        <v>8.339219848649869</v>
       </c>
       <c r="E24">
-        <v>59.06046226667215</v>
+        <v>28.62296131528428</v>
       </c>
       <c r="F24">
-        <v>90.2450195244072</v>
+        <v>50.67656953923679</v>
       </c>
       <c r="G24">
-        <v>1.757423849172097</v>
+        <v>3.60744230072648</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.14705729240799</v>
+        <v>24.05896012313488</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.28795131005155</v>
+        <v>14.3835214879509</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.19518657767264</v>
+        <v>17.7256688642643</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.28280603133129</v>
+        <v>18.30419062627572</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.17924608466065</v>
+        <v>8.078879008332294</v>
       </c>
       <c r="E25">
-        <v>51.21357169628423</v>
+        <v>26.04559857561935</v>
       </c>
       <c r="F25">
-        <v>77.80614850820209</v>
+        <v>47.95876474912405</v>
       </c>
       <c r="G25">
-        <v>1.836581789041443</v>
+        <v>3.622956235202637</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.45117774228627</v>
+        <v>24.36149710526829</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.37714776609621</v>
+        <v>13.7981672625321</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.96496307113893</v>
+        <v>17.86060195689358</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.7435299789381</v>
+        <v>21.95658967950438</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.895511040167776</v>
+        <v>9.880830639531528</v>
       </c>
       <c r="E2">
-        <v>23.97727777931222</v>
+        <v>45.75687548824586</v>
       </c>
       <c r="F2">
-        <v>45.93636939641061</v>
+        <v>69.19430997043925</v>
       </c>
       <c r="G2">
-        <v>3.635167101352711</v>
+        <v>1.887877940719606</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.60619259076782</v>
+        <v>13.87804675786015</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.36631457433549</v>
+        <v>18.27776716300412</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.96673420643691</v>
+        <v>11.47999407219904</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.36251559319772</v>
+        <v>20.32025966479542</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.777055799274089</v>
+        <v>9.013145005906004</v>
       </c>
       <c r="E3">
-        <v>22.46871719913002</v>
+        <v>42.07143457450051</v>
       </c>
       <c r="F3">
-        <v>44.56221823164615</v>
+        <v>63.42477233211184</v>
       </c>
       <c r="G3">
-        <v>3.643944028944533</v>
+        <v>1.920757499470452</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.7855648676278</v>
+        <v>14.24776451583181</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.07496835463885</v>
+        <v>16.8306630448043</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.04296343812682</v>
+        <v>11.81563153066328</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.12891609210078</v>
+        <v>19.27907813198268</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.707388924229538</v>
+        <v>8.496982721631504</v>
       </c>
       <c r="E4">
-        <v>21.48973561322724</v>
+        <v>39.77958267693229</v>
       </c>
       <c r="F4">
-        <v>43.7203171692588</v>
+        <v>59.8647222740488</v>
       </c>
       <c r="G4">
-        <v>3.649583682778916</v>
+        <v>1.940485102399729</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.90233406872711</v>
+        <v>14.50475256372809</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.89739030964981</v>
+        <v>15.92016805571883</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.09191414805754</v>
+        <v>12.0187026191449</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.03394399529442</v>
+        <v>18.84486477921009</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.679797929502742</v>
+        <v>8.316535570836196</v>
       </c>
       <c r="E5">
-        <v>21.07755138501533</v>
+        <v>38.83455857809312</v>
       </c>
       <c r="F5">
-        <v>43.37826900217194</v>
+        <v>58.404319491651</v>
       </c>
       <c r="G5">
-        <v>3.651945353778197</v>
+        <v>1.948459320772008</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.95158007281294</v>
+        <v>14.61592890591016</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.82545700682666</v>
+        <v>15.54251456011101</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.11240481898043</v>
+        <v>12.10109079466226</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.01819132923751</v>
+        <v>18.77214615193154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.675265485536334</v>
+        <v>8.286646520522222</v>
       </c>
       <c r="E6">
-        <v>21.00830955298322</v>
+        <v>38.67687598325575</v>
       </c>
       <c r="F6">
-        <v>43.3215517292835</v>
+        <v>58.16111315901317</v>
       </c>
       <c r="G6">
-        <v>3.652341353881346</v>
+        <v>1.949780768350915</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.95985750790918</v>
+        <v>14.63475231730834</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.81354157721302</v>
+        <v>15.47937837879254</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.11584016363455</v>
+        <v>12.11475897347287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.127634187703</v>
+        <v>19.27326321647906</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.707013552693259</v>
+        <v>8.49454386761761</v>
       </c>
       <c r="E7">
-        <v>21.48423033371274</v>
+        <v>39.76688691537804</v>
       </c>
       <c r="F7">
-        <v>43.71569923138499</v>
+        <v>59.84507166990591</v>
       </c>
       <c r="G7">
-        <v>3.649615275526389</v>
+        <v>1.940592850204449</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.90299149805998</v>
+        <v>14.50622705504671</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.89641831066488</v>
+        <v>15.91510295412387</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.09218828998938</v>
+        <v>12.01981476212341</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61216461540456</v>
+        <v>21.39943155732977</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.854049054748264</v>
+        <v>9.58154002398247</v>
       </c>
       <c r="E8">
-        <v>23.46807210705305</v>
+        <v>44.4895276065898</v>
       </c>
       <c r="F8">
-        <v>45.46251755401737</v>
+        <v>67.20491062389824</v>
       </c>
       <c r="G8">
-        <v>3.638141652905393</v>
+        <v>1.899345477693415</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.6666592409657</v>
+        <v>13.99855997807387</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.26564723809274</v>
+        <v>17.78261445942356</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.99257472080827</v>
+        <v>11.59661679406426</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.55931637135392</v>
+        <v>25.32878504903368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.165368044127973</v>
+        <v>11.7926628187636</v>
       </c>
       <c r="E9">
-        <v>26.94021536914255</v>
+        <v>53.77118785163469</v>
       </c>
       <c r="F9">
-        <v>48.878773663556</v>
+        <v>81.85878193543023</v>
       </c>
       <c r="G9">
-        <v>3.617609265706515</v>
+        <v>1.811472437869247</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.25615855641836</v>
+        <v>13.30902564887575</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.99571565968178</v>
+        <v>21.34111251475274</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.81410569474417</v>
+        <v>10.71727570131223</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.24599174251404</v>
+        <v>28.18565197750512</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.406205939829963</v>
+        <v>13.59002413150275</v>
       </c>
       <c r="E10">
-        <v>29.23739386317487</v>
+        <v>61.20843975606479</v>
       </c>
       <c r="F10">
-        <v>51.35350858330505</v>
+        <v>93.64458890344271</v>
       </c>
       <c r="G10">
-        <v>3.603693866304828</v>
+        <v>1.734674845019201</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.98729238002272</v>
+        <v>13.1345405569137</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.53010945152119</v>
+        <v>24.05861516727978</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.69305686601538</v>
+        <v>9.980252558065979</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.55493969138293</v>
+        <v>29.53744855044059</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.517976642005531</v>
+        <v>14.52213469428589</v>
       </c>
       <c r="E11">
-        <v>30.22775824756393</v>
+        <v>65.04122986127298</v>
       </c>
       <c r="F11">
-        <v>52.46617914502883</v>
+        <v>99.68836279415653</v>
       </c>
       <c r="G11">
-        <v>3.597610879038639</v>
+        <v>1.692970382210816</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.87219334128898</v>
+        <v>13.18929548444705</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.77167187840343</v>
+        <v>25.4016573848404</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.64012931143575</v>
+        <v>9.594032897894692</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.6713268742187</v>
+        <v>30.06865255484345</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.560583658638789</v>
+        <v>14.90739143104375</v>
       </c>
       <c r="E12">
-        <v>30.5949688065304</v>
+        <v>66.62216184542864</v>
       </c>
       <c r="F12">
-        <v>52.88522932117169</v>
+        <v>102.1693809223069</v>
       </c>
       <c r="G12">
-        <v>3.595342429210892</v>
+        <v>1.675364418813948</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.82965519622438</v>
+        <v>13.23999673907852</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.86283813174334</v>
+        <v>25.94270849204614</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.62039080471944</v>
+        <v>9.434100095461847</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.64628941554291</v>
+        <v>29.95304778891455</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.551395511864762</v>
+        <v>14.82252051091435</v>
       </c>
       <c r="E13">
-        <v>30.51623054043891</v>
+        <v>66.27402001762739</v>
       </c>
       <c r="F13">
-        <v>52.79508749988742</v>
+        <v>101.6237473117123</v>
       </c>
       <c r="G13">
-        <v>3.595829429897199</v>
+        <v>1.679261315826647</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.83876978836221</v>
+        <v>13.22746004938696</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.84321888517405</v>
+        <v>25.82424226375759</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.62462837980736</v>
+        <v>9.469337923982302</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.5645276710638</v>
+        <v>29.58064844856136</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.52147650396703</v>
+        <v>14.55302644987276</v>
       </c>
       <c r="E14">
-        <v>30.25812535124355</v>
+        <v>65.16805631976848</v>
       </c>
       <c r="F14">
-        <v>52.50070283779761</v>
+        <v>99.88769373463924</v>
       </c>
       <c r="G14">
-        <v>3.597423552851442</v>
+        <v>1.691566550519452</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.86867264846518</v>
+        <v>13.19276909442632</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.7791788377419</v>
+        <v>25.44535113409828</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.63849933974938</v>
+        <v>9.58121185328512</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.51436428489735</v>
+        <v>29.3556228465402</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.503185886592373</v>
+        <v>14.39292249406501</v>
       </c>
       <c r="E15">
-        <v>30.09901141405073</v>
+        <v>64.5106252808811</v>
       </c>
       <c r="F15">
-        <v>52.32007349317932</v>
+        <v>98.85390044697292</v>
       </c>
       <c r="G15">
-        <v>3.598404548098813</v>
+        <v>1.698827254717436</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.88712573867756</v>
+        <v>13.17590068441015</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.73990982801404</v>
+        <v>25.21831957013147</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.6470351910562</v>
+        <v>9.647650639739473</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.22572259612454</v>
+        <v>28.09912553379171</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.398942873665211</v>
+        <v>13.53243301669053</v>
       </c>
       <c r="E16">
-        <v>29.17157491561163</v>
+        <v>60.97119006790004</v>
       </c>
       <c r="F16">
-        <v>51.28049335547568</v>
+        <v>93.26943973455299</v>
       </c>
       <c r="G16">
-        <v>3.604096335435395</v>
+        <v>1.737209809323231</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.99496034121906</v>
+        <v>13.13439020243521</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.51428427870188</v>
+        <v>23.97410243726888</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.69655853685876</v>
+        <v>10.00405668331745</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.04769102932986</v>
+        <v>27.347117664675</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.335533921725249</v>
+        <v>13.04109529183451</v>
       </c>
       <c r="E17">
-        <v>28.58865442957559</v>
+        <v>58.9446180676837</v>
       </c>
       <c r="F17">
-        <v>50.63908483037353</v>
+        <v>90.06150488273647</v>
       </c>
       <c r="G17">
-        <v>3.607651022071297</v>
+        <v>1.758637779675555</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.06296726834987</v>
+        <v>13.14861824637204</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.37541301819978</v>
+        <v>23.24604290591332</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.72748469211931</v>
+        <v>10.2067381977859</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.94497594707497</v>
+        <v>26.91850038781238</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.299273171675043</v>
+        <v>12.76792839608595</v>
       </c>
       <c r="E18">
-        <v>28.24822898485871</v>
+        <v>57.81581236851521</v>
       </c>
       <c r="F18">
-        <v>50.26895266529868</v>
+        <v>88.27264529699393</v>
       </c>
       <c r="G18">
-        <v>3.609718881752098</v>
+        <v>1.770396441442724</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.10276097208078</v>
+        <v>13.16855188511112</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.29539824878117</v>
+        <v>22.83589476143154</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.74547406143705</v>
+        <v>10.31905679486873</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.91014764867866</v>
+        <v>26.77384305291365</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.287033150516434</v>
+        <v>12.67678500303878</v>
       </c>
       <c r="E19">
-        <v>28.1320820753012</v>
+        <v>57.43881666361305</v>
       </c>
       <c r="F19">
-        <v>50.1434374621613</v>
+        <v>87.6749866307038</v>
       </c>
       <c r="G19">
-        <v>3.610423040077738</v>
+        <v>1.774295138044102</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.11635055629928</v>
+        <v>13.17711005953191</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.2682853821348</v>
+        <v>22.69820509427637</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.75159965896479</v>
+        <v>10.35646553382838</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.0666763388823</v>
+        <v>27.42671167772527</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.342262400714805</v>
+        <v>13.09235203444009</v>
       </c>
       <c r="E20">
-        <v>28.65123954534047</v>
+        <v>59.15625085718364</v>
       </c>
       <c r="F20">
-        <v>50.70749229291972</v>
+        <v>90.39675211085276</v>
       </c>
       <c r="G20">
-        <v>3.60727021196409</v>
+        <v>1.756419073480283</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.05565757803141</v>
+        <v>13.14583491679856</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.39021120904179</v>
+        <v>23.32257817141831</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.72417172439733</v>
+        <v>10.18563149756556</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.58856034703593</v>
+        <v>29.68934628729398</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.53025707888739</v>
+        <v>14.63108942679165</v>
       </c>
       <c r="E21">
-        <v>30.3341489816899</v>
+        <v>65.48849630862047</v>
       </c>
       <c r="F21">
-        <v>52.58723607831427</v>
+        <v>100.391101967948</v>
       </c>
       <c r="G21">
-        <v>3.596954373213837</v>
+        <v>1.68801293798027</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.85986094019772</v>
+        <v>13.20201036046616</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.79799798424186</v>
+        <v>25.55552552448688</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.63441687953972</v>
+        <v>9.548810077052904</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.92607024293453</v>
+        <v>31.30154411934035</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.654748996525891</v>
+        <v>15.85350572943955</v>
       </c>
       <c r="E22">
-        <v>31.38847377049994</v>
+        <v>70.49912888046408</v>
       </c>
       <c r="F22">
-        <v>53.80222410980121</v>
+        <v>108.2129945541033</v>
       </c>
       <c r="G22">
-        <v>3.590416408446753</v>
+        <v>1.631230399715849</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.73800678495358</v>
+        <v>13.71223472102576</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.06267736028389</v>
+        <v>27.23462731438264</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.57752727106497</v>
+        <v>9.041509631768267</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.74629682801747</v>
+        <v>30.41986669609859</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.588168352496167</v>
+        <v>15.16898641044429</v>
       </c>
       <c r="E23">
-        <v>30.8299152794713</v>
+        <v>67.69480689853266</v>
       </c>
       <c r="F23">
-        <v>53.15512557652241</v>
+        <v>103.847723110579</v>
       </c>
       <c r="G23">
-        <v>3.593887342408592</v>
+        <v>1.663288275793922</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.80247985525896</v>
+        <v>13.28339632532373</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.92160807804197</v>
+        <v>26.30523245390532</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.60772948760832</v>
+        <v>9.325488527264527</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.0580942005105</v>
+        <v>27.39071630053577</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.339219848649869</v>
+        <v>13.06915075403695</v>
       </c>
       <c r="E24">
-        <v>28.62296131528428</v>
+        <v>59.06046226667201</v>
       </c>
       <c r="F24">
-        <v>50.67656953923679</v>
+        <v>90.24501952440718</v>
       </c>
       <c r="G24">
-        <v>3.60744230072648</v>
+        <v>1.757423849171974</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.05896012313488</v>
+        <v>13.14705729240796</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.3835214879509</v>
+        <v>23.28795131005153</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.7256688642643</v>
+        <v>10.1951865776726</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.30419062627572</v>
+        <v>24.28280603133122</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.078879008332294</v>
+        <v>11.17924608466058</v>
       </c>
       <c r="E25">
-        <v>26.04559857561935</v>
+        <v>51.21357169628382</v>
       </c>
       <c r="F25">
-        <v>47.95876474912405</v>
+        <v>77.8061485082016</v>
       </c>
       <c r="G25">
-        <v>3.622956235202637</v>
+        <v>1.836581789041819</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.36149710526829</v>
+        <v>13.45117774228634</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.7981672625321</v>
+        <v>20.37714776609607</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.86060195689358</v>
+        <v>10.96496307113896</v>
       </c>
       <c r="O25">
         <v>0</v>
